--- a/Microbot_BOM.xlsx
+++ b/Microbot_BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\microbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="108">
   <si>
     <t>部品番号</t>
   </si>
@@ -372,6 +372,55 @@
   </si>
   <si>
     <t>https://www.sengoku.co.jp/mod/sgk_cart/detail.php?code=EEHD-4KC7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://store.shopping.yahoo.co.jp/suzakulab/Pololu-3081.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Pololu 金属マイクロギヤードモータ用磁気エンコーダキット 12CPR 2.7V-18V (HPCB対応) 2個入り</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1108</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半田付けが非常に難しいので、販売元に有料委託するか、後継機種（https://store.shopping.yahoo.co.jp/suzakulab/Pololu-4760.html）の利用を推奨（動作未確認）。</t>
+    <rPh sb="0" eb="3">
+      <t>ハンダヅ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒジョウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ムズカ</t>
+    </rPh>
+    <rPh sb="14" eb="17">
+      <t>ハンバイモト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ユウリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>イタク</t>
+    </rPh>
+    <rPh sb="26" eb="30">
+      <t>コウケイキシュ</t>
+    </rPh>
+    <rPh sb="94" eb="96">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="97" eb="99">
+      <t>スイショウ</t>
+    </rPh>
+    <rPh sb="100" eb="102">
+      <t>ドウサ</t>
+    </rPh>
+    <rPh sb="102" eb="105">
+      <t>ミカクニン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -488,7 +537,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +590,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2240,26 +2295,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="35.125" customWidth="1"/>
+    <col min="1" max="1" width="35.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="47.125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="47.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="10" t="s">
@@ -2288,7 +2343,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="8"/>
@@ -2311,7 +2366,7 @@
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="2"/>
@@ -2357,7 +2412,7 @@
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="2"/>
@@ -2380,7 +2435,7 @@
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2"/>
@@ -2403,7 +2458,7 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="2"/>
@@ -2426,7 +2481,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B8" s="2"/>
@@ -2449,7 +2504,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="2"/>
@@ -2472,7 +2527,7 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="2"/>
@@ -2495,7 +2550,7 @@
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2"/>
@@ -2518,7 +2573,7 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B12" s="2"/>
@@ -2541,7 +2596,7 @@
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2"/>
@@ -2564,7 +2619,7 @@
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="2"/>
@@ -2587,7 +2642,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2"/>
@@ -2610,7 +2665,7 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
       <c r="B16" s="2"/>
@@ -2635,7 +2690,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B17" s="2"/>
@@ -2658,7 +2713,7 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2"/>
@@ -2683,7 +2738,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2"/>
@@ -2708,7 +2763,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2"/>
@@ -2733,7 +2788,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B21" s="2"/>
@@ -2758,7 +2813,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="2"/>
@@ -2783,7 +2838,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B23" s="2"/>
@@ -2808,7 +2863,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B24" s="2"/>
@@ -2833,7 +2888,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B25" s="2"/>
@@ -2856,7 +2911,7 @@
       <c r="I25" s="2"/>
     </row>
     <row r="26" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B26" s="2"/>
@@ -2879,7 +2934,7 @@
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="2"/>
@@ -2902,7 +2957,7 @@
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="2"/>
@@ -2925,7 +2980,7 @@
       <c r="I28" s="2"/>
     </row>
     <row r="29" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="2"/>
@@ -2948,7 +3003,7 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
       <c r="B30" s="2"/>
@@ -2971,7 +3026,7 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
       <c r="B31" s="2"/>
@@ -2996,7 +3051,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" ht="68.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="7" t="s">
         <v>39</v>
       </c>
       <c r="B32" s="5"/>
@@ -3047,6 +3102,27 @@
       <c r="G34" s="7"/>
       <c r="H34" s="6"/>
       <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="74.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A35" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+      <c r="F35" s="5"/>
+      <c r="G35" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="7" t="s">
+        <v>107</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:J34">
@@ -3080,13 +3156,14 @@
     <hyperlink ref="G30" r:id="rId23"/>
     <hyperlink ref="G31" r:id="rId24"/>
     <hyperlink ref="G32" r:id="rId25"/>
+    <hyperlink ref="G35" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" r:id="rId26"/>
+  <pageSetup paperSize="9" scale="59" fitToHeight="0" orientation="landscape" r:id="rId27"/>
   <headerFooter>
     <oddHeader>&amp;CMicrobot BOM&amp;R&amp;D</oddHeader>
     <oddFooter>&amp;C&amp;P／&amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId27"/>
+  <drawing r:id="rId28"/>
 </worksheet>
 </file>